--- a/regions/4/transporti da kavshirgabmuloba/registrirebuli avtomobilebis raodenoba.xlsx
+++ b/regions/4/transporti da kavshirgabmuloba/registrirebuli avtomobilebis raodenoba.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fqavtaradze\Desktop\რეგიონები\რეგიონები\აჭარა\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\რეგისტრირებული ავტომობილები\რეგისტრირებული ავტომობილების რაოდენობა\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DD39EE-013F-4A5A-A6D0-B227A5AF2A21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12090"/>
+    <workbookView xWindow="630" yWindow="150" windowWidth="13320" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>აჭარის ავტონომიურ რესპუბლიკაში რეგისტრირებული ავტომობილების რაოდენობა სპეციალიზაციის მიხედვით</t>
   </si>
@@ -49,16 +50,21 @@
   </si>
   <si>
     <t>*სასოფლო-სამეურნეო დანიშნულების ტექნიკის ჩათვლით</t>
+  </si>
+  <si>
+    <t>ცალკეულ შემთხვევაში უმნიშვნელო განსხვავება საბოლოო შედეგსა და შესაკრებთა ჯამს შორის აიხსნება მონაცემთა დამრგვალებით.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,12 +93,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Sylfaen"/>
       <family val="1"/>
@@ -114,6 +114,26 @@
       <color theme="1"/>
       <name val="Sylfaen"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -139,15 +159,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -162,80 +173,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -327,6 +349,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -362,6 +401,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -537,11 +593,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,230 +609,312 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="3">
+      <c r="B3" s="15">
         <v>2014</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="15">
         <v>2015</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="16">
         <v>2016</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="16">
         <v>2017</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="16">
         <v>2018</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="16">
         <v>2019</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="16">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="16">
+        <v>2021</v>
+      </c>
+      <c r="J3" s="16">
+        <v>2022</v>
+      </c>
+      <c r="K3" s="16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="17">
         <v>78.5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>86.2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="4">
         <v>95.3</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <v>101</v>
       </c>
-      <c r="F4" s="9">
-        <v>105.8</v>
-      </c>
-      <c r="G4" s="10">
-        <v>109.1</v>
-      </c>
-      <c r="H4" s="11">
-        <v>114.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="F4" s="5">
+        <v>105.7</v>
+      </c>
+      <c r="G4" s="6">
+        <v>109</v>
+      </c>
+      <c r="H4" s="7">
+        <v>114.3</v>
+      </c>
+      <c r="I4" s="18">
+        <v>120.35299999999999</v>
+      </c>
+      <c r="J4" s="18">
+        <v>130.352</v>
+      </c>
+      <c r="K4" s="20">
+        <v>136.37300000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="6">
         <v>7.8</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>8.5</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="10">
         <v>9.1</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="5">
         <v>9.6</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="9">
         <v>10.1</v>
       </c>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="18">
+        <v>10.236000000000001</v>
+      </c>
+      <c r="J6" s="18">
+        <v>11.021000000000001</v>
+      </c>
+      <c r="K6" s="20">
+        <v>11.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="6">
         <v>5.9</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="6">
         <v>6</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <v>6.2</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="10">
         <v>6.1</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="5">
         <v>6.2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>6</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="9">
         <v>5.9</v>
       </c>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="18">
+        <v>5.7450000000000001</v>
+      </c>
+      <c r="J7" s="18">
+        <v>5.5049999999999999</v>
+      </c>
+      <c r="K7" s="20">
+        <v>5.4569999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="6">
         <v>1.6</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="6">
         <v>1.7</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="4">
         <v>1.9</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="10">
         <v>2.1</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="5">
         <v>2.5</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="9">
         <v>2.6</v>
       </c>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="18">
+        <v>2.65</v>
+      </c>
+      <c r="J8" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="K8" s="20">
+        <v>3.1259999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="6">
         <v>63.2</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="6">
         <v>70</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="4">
         <v>78.400000000000006</v>
       </c>
-      <c r="E9" s="8">
-        <v>83.7</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="E9" s="4">
+        <v>83.6</v>
+      </c>
+      <c r="F9" s="6">
         <v>87.7</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="5">
         <v>90.9</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="9">
         <v>95.8</v>
       </c>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="I9" s="18">
+        <v>101.72199999999999</v>
+      </c>
+      <c r="J9" s="18">
+        <v>110.926</v>
+      </c>
+      <c r="K9" s="20">
+        <v>116.413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-    </row>
-    <row r="13" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
+  <mergeCells count="5">
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
